--- a/Data/Old/Costs.xlsx
+++ b/Data/Old/Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruker/Desktop/MASTERMIND/MasterModel/Minimodell/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15227D8-4703-5540-9FAB-D42E834CDAF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8418397-A327-419D-A434-954291B6C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24920" windowHeight="14960" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,20 @@
     <sheet name="Biofuels" sheetId="3" r:id="rId6"/>
     <sheet name="Road" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -574,9 +584,6 @@
     <t>http://lipasto.vtt.fi/yksikkopaastot/tavaraliikennee/vesiliikennee/tankkerie.htm</t>
   </si>
   <si>
-    <t>moz-extension://34e6d9d9-33b7-4b72-ac17-9189841c128a/enhanced-reader.html?openApp&amp;pdf=https%3A%2F%2Flink.springer.com%2Fcontent%2Fpdf%2F10.1007%2Fs40868-019-00059-y.pdf</t>
-  </si>
-  <si>
     <t>Cost (NOK/Tkm)</t>
   </si>
   <si>
@@ -660,19 +667,22 @@
   <si>
     <t>Cost - lav (-25%)</t>
   </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/s40868-019-00059-y.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,7 +913,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -924,18 +934,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -947,20 +957,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperkobling" xfId="3" builtinId="8"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1141,7 +1151,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{478D9775-5029-46DF-BCCC-A359572636CA}" name="Table2" displayName="Table2" ref="A1:D22" totalsRowShown="0">
   <autoFilter ref="A1:D22" xr:uid="{478D9775-5029-46DF-BCCC-A359572636CA}"/>
-  <sortState ref="A2:D22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="4">
@@ -1155,7 +1165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1454,25 +1464,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,34 +1502,34 @@
         <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>0.64244922550000005</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1657,10 +1667,10 @@
         <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1703,14 +1713,14 @@
         <v>2025</v>
       </c>
       <c r="Q5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R5">
         <f>(0.998)^3</f>
         <v>0.99401199200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1753,14 +1763,14 @@
         <v>2030</v>
       </c>
       <c r="Q6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R6">
         <f>(0.998)^8</f>
         <v>0.98411155311820986</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1807,14 +1817,14 @@
         <v>2040</v>
       </c>
       <c r="Q7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R7">
         <f>(0.998)^18</f>
         <v>0.96460552068700811</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1856,14 +1866,14 @@
         <v>2050</v>
       </c>
       <c r="Q8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R8">
         <f>(0.998)^28</f>
         <v>0.94548611647900083</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>0.44873611359999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1946,10 +1956,10 @@
         <v>0.29208227730000003</v>
       </c>
       <c r="R10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1992,14 +2002,14 @@
         <v>2025</v>
       </c>
       <c r="Q11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R11">
         <f>(0.993)^3</f>
         <v>0.97914665699999992</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2046,14 +2056,14 @@
         <v>2030</v>
       </c>
       <c r="Q12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R12">
         <f>(0.993)^8</f>
         <v>0.94535295913209538</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2095,14 +2105,14 @@
         <v>2040</v>
       </c>
       <c r="Q13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R13">
         <f>(0.993)^18</f>
         <v>0.88122431721570149</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2148,14 +2158,14 @@
         <v>2050</v>
       </c>
       <c r="Q14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R14">
         <f>(0.993)^28</f>
         <v>0.82144588404865837</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2205,7 @@
         <v>0.29208227730000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2235,12 +2245,12 @@
         <v>0.30861523639999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2279,12 +2289,12 @@
         <v>0.3673990909</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2318,12 +2328,12 @@
         <v>0.35821411359999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2361,12 +2371,12 @@
         <v>0.44873611359999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2401,12 +2411,12 @@
         <v>0.29208227730000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2441,7 +2451,7 @@
         <v>0.30861523639999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>0.3673990909</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>0.35821411359999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +2577,7 @@
         <v>0.44873611359999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>0.29208227730000003</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>0.30861523639999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2694,7 +2704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2743,7 @@
         <v>0.34767840439999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>0.43553799259999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>0.28349162210000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2866,7 @@
         <v>0.29953831759999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>0.3673990909</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>0.35821411359999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2982,7 +2992,7 @@
         <v>0.44873611359999999</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -3022,7 +3032,7 @@
         <v>0.29208227730000003</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>0.30861523639999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3105,10 +3115,10 @@
         <v>7.4927820000000006E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>8.2420601999999996E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3188,7 +3198,7 @@
         <v>8.8190044140000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3264,7 +3274,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3304,7 +3314,7 @@
         <v>7.4178541799999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3344,7 +3354,7 @@
         <v>7.7887468890000006E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -3388,7 +3398,7 @@
         <v>7.9335338820000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3438,7 @@
         <v>8.7268872710000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3468,7 +3478,7 @@
         <v>9.3377693799999995E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -3506,7 +3516,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>7.8541985440000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>8.2469084710000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -3668,7 +3678,7 @@
         <v>7.9335338820000004E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>8.7268872710000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>9.3377693799999995E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -3786,7 +3796,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3824,7 +3834,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>7.8541985440000003E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3904,12 +3914,12 @@
         <v>8.2469084710000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -3948,12 +3958,12 @@
         <v>7.9335338820000004E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -3988,12 +3998,12 @@
         <v>8.7268872710000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -4028,12 +4038,12 @@
         <v>9.3377693799999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -4066,12 +4076,12 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -4104,12 +4114,12 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -4144,12 +4154,12 @@
         <v>7.8541985440000003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -4184,7 +4194,7 @@
         <v>8.2469084710000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>0.26974015200000001</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4268,7 +4278,7 @@
         <v>0.29671416719999999</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4308,7 +4318,7 @@
         <v>0.31748415889999998</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4346,7 +4356,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -4424,7 +4434,7 @@
         <v>0.26704275049999998</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4464,7 +4474,7 @@
         <v>0.28039488800000001</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>0.26974015200000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -4548,7 +4558,7 @@
         <v>0.29671416719999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4588,7 +4598,7 @@
         <v>0.31748415889999998</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4664,7 +4674,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -4704,7 +4714,7 @@
         <v>0.26704275049999998</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>0.28039488800000001</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>4.363443635E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -4871,7 +4881,7 @@
         <v>4.6688846899999997E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>70</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>3.9270992720000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>4.123454235E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>0.11556</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -5162,7 +5172,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>0.12480479999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -5248,7 +5258,7 @@
         <v>0.208008</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -5338,7 +5348,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>0.17680679999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>0.294678</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>0.15470595000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -5598,7 +5608,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -5641,7 +5651,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -5728,7 +5738,7 @@
         <v>0.17680679999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -5771,7 +5781,7 @@
         <v>0.294678</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -5815,12 +5825,12 @@
         <v>0.15470595000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
@@ -5858,12 +5868,12 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
@@ -5901,12 +5911,12 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
@@ -5945,12 +5955,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
         <v>37</v>
@@ -5988,12 +5998,12 @@
         <v>0.17680679999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
         <v>37</v>
@@ -6031,12 +6041,12 @@
         <v>0.294678</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
         <v>37</v>
@@ -6075,7 +6085,7 @@
         <v>0.15470595000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -6118,7 +6128,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -6161,7 +6171,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>0.17680679999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>0.294678</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -6335,7 +6345,7 @@
         <v>0.15470595000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -6381,7 +6391,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -6427,7 +6437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -6517,7 +6527,7 @@
         <v>0.17680679999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>0.294678</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -6604,7 +6614,7 @@
         <v>0.15470595000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -6689,7 +6699,7 @@
         <v>0.14445</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -6733,7 +6743,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -6776,7 +6786,7 @@
         <v>0.15600600000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -6819,7 +6829,7 @@
         <v>0.26001000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -6863,7 +6873,7 @@
         <v>0.13650524999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -6907,10 +6917,10 @@
         <v>0.65839891299999997</v>
       </c>
       <c r="N128" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -6950,10 +6960,10 @@
         <v>0.50861316030000003</v>
       </c>
       <c r="N129" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -6997,7 +7007,7 @@
         <v>0.70250588319999996</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -7037,7 +7047,7 @@
         <v>0.54811709509999995</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +7087,7 @@
         <v>0.55799307880000004</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -7161,7 +7171,7 @@
         <v>0.2835903682</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>0.39170025000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -7245,7 +7255,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -7329,7 +7339,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -7369,7 +7379,7 @@
         <v>0.2835903682</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -7413,7 +7423,7 @@
         <v>0.39170025000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -7453,7 +7463,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -7493,12 +7503,12 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
@@ -7537,12 +7547,12 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
@@ -7577,12 +7587,12 @@
         <v>0.2835903682</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
@@ -7621,12 +7631,12 @@
         <v>0.39170025000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
@@ -7661,12 +7671,12 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -7701,7 +7711,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -7745,7 +7755,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -7785,7 +7795,7 @@
         <v>0.2835903682</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>0.39170025000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -7869,7 +7879,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -7909,7 +7919,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -7953,7 +7963,7 @@
         <v>0.35631000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -7993,7 +8003,7 @@
         <v>0.27524947500000002</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -8037,7 +8047,7 @@
         <v>0.38017965440000001</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -8077,7 +8087,7 @@
         <v>0.29662807499999999</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -8117,7 +8127,7 @@
         <v>0.301972725</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -8161,7 +8171,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -8201,7 +8211,7 @@
         <v>0.2835903682</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +8255,7 @@
         <v>0.39170025000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -8285,7 +8295,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -8325,7 +8335,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -8369,7 +8379,7 @@
         <v>7.4847570000000002E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>8.2332326999999997E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>70</v>
       </c>
@@ -8453,7 +8463,7 @@
         <v>0.17874136000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -8499,7 +8509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>70</v>
       </c>
@@ -8538,7 +8548,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>70</v>
       </c>
@@ -8578,7 +8588,7 @@
         <v>7.5334079210000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>70</v>
       </c>
@@ -8618,7 +8628,7 @@
         <v>7.9100783169999994E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>70</v>
       </c>
@@ -8662,7 +8672,7 @@
         <v>7.9250368239999994E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>70</v>
       </c>
@@ -8702,7 +8712,7 @@
         <v>8.7175405060000002E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>70</v>
       </c>
@@ -8742,7 +8752,7 @@
         <v>9.3277683410000006E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>70</v>
       </c>
@@ -8781,7 +8791,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>70</v>
       </c>
@@ -8820,7 +8830,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>70</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>7.9765495630000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>70</v>
       </c>
@@ -8900,7 +8910,7 @@
         <v>8.3753770409999997E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>70</v>
       </c>
@@ -8944,7 +8954,7 @@
         <v>7.9250368239999994E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>70</v>
       </c>
@@ -8984,7 +8994,7 @@
         <v>8.7175405060000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>70</v>
       </c>
@@ -9024,7 +9034,7 @@
         <v>9.3277683410000006E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>70</v>
       </c>
@@ -9063,7 +9073,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>70</v>
       </c>
@@ -9102,7 +9112,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>70</v>
       </c>
@@ -9142,7 +9152,7 @@
         <v>7.9765495630000002E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -9182,12 +9192,12 @@
         <v>8.3753770409999997E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -9226,12 +9236,12 @@
         <v>7.9250368239999994E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>70</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -9266,12 +9276,12 @@
         <v>8.7175405060000002E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>70</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -9306,12 +9316,12 @@
         <v>9.3277683410000006E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>70</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -9345,12 +9355,12 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>70</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -9384,12 +9394,12 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>70</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -9424,12 +9434,12 @@
         <v>7.9765495630000002E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>70</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -9464,7 +9474,7 @@
         <v>8.3753770409999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>70</v>
       </c>
@@ -9508,7 +9518,7 @@
         <v>0.26945125199999997</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>70</v>
       </c>
@@ -9548,7 +9558,7 @@
         <v>0.29639637720000001</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>70</v>
       </c>
@@ -9588,7 +9598,7 @@
         <v>0.31714412359999999</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>70</v>
       </c>
@@ -9627,7 +9637,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>70</v>
       </c>
@@ -9666,7 +9676,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>70</v>
       </c>
@@ -9706,7 +9716,7 @@
         <v>0.27120268510000001</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>70</v>
       </c>
@@ -9746,7 +9756,7 @@
         <v>0.28476281939999998</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>70</v>
       </c>
@@ -9790,7 +9800,7 @@
         <v>0.26945125199999997</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>70</v>
       </c>
@@ -9830,7 +9840,7 @@
         <v>0.29639637720000001</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>70</v>
       </c>
@@ -9870,7 +9880,7 @@
         <v>0.31714412359999999</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>70</v>
       </c>
@@ -9909,7 +9919,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>70</v>
       </c>
@@ -9948,7 +9958,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>70</v>
       </c>
@@ -9988,7 +9998,7 @@
         <v>0.27120268510000001</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>70</v>
       </c>
@@ -10028,7 +10038,7 @@
         <v>0.28476281939999998</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>70</v>
       </c>
@@ -10072,7 +10082,7 @@
         <v>3.9625184119999997E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>70</v>
       </c>
@@ -10112,7 +10122,7 @@
         <v>4.3587702530000001E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>70</v>
       </c>
@@ -10152,7 +10162,7 @@
         <v>4.6638841709999997E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>70</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>70</v>
       </c>
@@ -10230,7 +10240,7 @@
         <v>7499.25</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>70</v>
       </c>
@@ -10270,7 +10280,7 @@
         <v>3.9882747810000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>70</v>
       </c>
@@ -10310,7 +10320,7 @@
         <v>4.1876885209999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -10354,7 +10364,7 @@
         <v>0.13867199999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10397,7 +10407,7 @@
         <v>0.11556</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -10441,7 +10451,7 @@
         <v>0.1144044</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -10485,7 +10495,7 @@
         <v>0.12272472</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -10529,7 +10539,7 @@
         <v>0.18720719999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -10573,7 +10583,7 @@
         <v>0.11024423999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -10617,7 +10627,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -10660,7 +10670,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>32</v>
       </c>
@@ -10704,7 +10714,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>32</v>
       </c>
@@ -10748,7 +10758,7 @@
         <v>0.17386002</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -10792,7 +10802,7 @@
         <v>0.26521020000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>32</v>
       </c>
@@ -10836,7 +10846,7 @@
         <v>0.15617934</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -10880,7 +10890,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -10923,7 +10933,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>32</v>
       </c>
@@ -10967,7 +10977,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>32</v>
       </c>
@@ -11011,7 +11021,7 @@
         <v>0.17386002</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>32</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>0.26521020000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>32</v>
       </c>
@@ -11099,12 +11109,12 @@
         <v>0.15617934</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>32</v>
       </c>
       <c r="B230" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C230" t="s">
         <v>37</v>
@@ -11143,12 +11153,12 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>32</v>
       </c>
       <c r="B231" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C231" t="s">
         <v>37</v>
@@ -11186,12 +11196,12 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>32</v>
       </c>
       <c r="B232" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C232" t="s">
         <v>37</v>
@@ -11230,12 +11240,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>32</v>
       </c>
       <c r="B233" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C233" t="s">
         <v>37</v>
@@ -11274,12 +11284,12 @@
         <v>0.17386002</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>32</v>
       </c>
       <c r="B234" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C234" t="s">
         <v>37</v>
@@ -11318,12 +11328,12 @@
         <v>0.26521020000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C235" t="s">
         <v>37</v>
@@ -11362,7 +11372,7 @@
         <v>0.15617934</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -11406,7 +11416,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -11449,7 +11459,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -11493,7 +11503,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -11537,7 +11547,7 @@
         <v>0.17386002</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -11581,7 +11591,7 @@
         <v>0.26521020000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -11625,7 +11635,7 @@
         <v>0.15617934</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -11669,7 +11679,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -11712,7 +11722,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -11756,7 +11766,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>32</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>0.17386002</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -11844,7 +11854,7 @@
         <v>0.26521020000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>32</v>
       </c>
@@ -11888,7 +11898,7 @@
         <v>0.15617934</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -11932,7 +11942,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -11975,7 +11985,7 @@
         <v>0.14445</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -12019,7 +12029,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>32</v>
       </c>
@@ -12063,7 +12073,7 @@
         <v>0.15340590000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>32</v>
       </c>
@@ -12107,7 +12117,7 @@
         <v>0.23400899999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -12151,7 +12161,7 @@
         <v>0.13780529999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12195,7 +12205,7 @@
         <v>0.65839891299999997</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -12235,7 +12245,7 @@
         <v>0.4493572582</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -12279,7 +12289,7 @@
         <v>0.62537429349999996</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -12319,7 +12329,7 @@
         <v>0.55799307880000004</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -12359,7 +12369,7 @@
         <v>0.55305508699999995</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12403,7 +12413,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -12443,7 +12453,7 @@
         <v>0.25055071359999997</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -12487,7 +12497,7 @@
         <v>0.34869354549999998</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -12527,7 +12537,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -12567,7 +12577,7 @@
         <v>0.30837010910000001</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -12611,7 +12621,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -12651,7 +12661,7 @@
         <v>0.25055071359999997</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -12695,7 +12705,7 @@
         <v>0.34869354549999998</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -12735,7 +12745,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -12775,12 +12785,12 @@
         <v>0.30837010910000001</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C269" t="s">
         <v>17</v>
@@ -12819,12 +12829,12 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C270" t="s">
         <v>17</v>
@@ -12859,12 +12869,12 @@
         <v>0.25055071359999997</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C271" t="s">
         <v>17</v>
@@ -12903,12 +12913,12 @@
         <v>0.34869354549999998</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C272" t="s">
         <v>17</v>
@@ -12943,12 +12953,12 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C273" t="s">
         <v>17</v>
@@ -12983,7 +12993,7 @@
         <v>0.30837010910000001</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -13027,7 +13037,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -13067,7 +13077,7 @@
         <v>0.25055071359999997</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -13111,7 +13121,7 @@
         <v>0.34869354549999998</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -13151,7 +13161,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -13191,7 +13201,7 @@
         <v>0.30837010910000001</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -13235,7 +13245,7 @@
         <v>0.35631000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -13275,7 +13285,7 @@
         <v>0.24318157500000001</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -13319,7 +13329,7 @@
         <v>0.3384378529</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -13359,7 +13369,7 @@
         <v>0.301972725</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -13399,7 +13409,7 @@
         <v>0.301972725</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -13443,7 +13453,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -13483,7 +13493,7 @@
         <v>0.25055071359999997</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -13527,7 +13537,7 @@
         <v>0.34869354549999998</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -13567,7 +13577,7 @@
         <v>0.31112341360000001</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -13607,7 +13617,7 @@
         <v>0.30837010910000001</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>70</v>
       </c>
@@ -13651,7 +13661,7 @@
         <v>7.4794070000000004E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>70</v>
       </c>
@@ -13691,7 +13701,7 @@
         <v>8.2273476999999998E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>70</v>
       </c>
@@ -13731,7 +13741,7 @@
         <v>8.8032620389999997E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>70</v>
       </c>
@@ -13775,7 +13785,7 @@
         <v>0.121869255</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -13819,7 +13829,7 @@
         <v>0.1178431125</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -13859,7 +13869,7 @@
         <v>7.6514333609999999E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>70</v>
       </c>
@@ -13899,7 +13909,7 @@
         <v>8.0340050290000006E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>70</v>
       </c>
@@ -13943,7 +13953,7 @@
         <v>7.9193721179999996E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -13983,7 +13993,7 @@
         <v>8.7113093289999999E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>70</v>
       </c>
@@ -14023,7 +14033,7 @@
         <v>9.3211009819999996E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>70</v>
       </c>
@@ -14067,7 +14077,7 @@
         <v>0.1290380347</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>70</v>
       </c>
@@ -14111,7 +14121,7 @@
         <v>0.1247750603</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>70</v>
       </c>
@@ -14151,7 +14161,7 @@
         <v>8.1015176760000002E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>70</v>
       </c>
@@ -14191,7 +14201,7 @@
         <v>8.5065935600000003E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>70</v>
       </c>
@@ -14235,7 +14245,7 @@
         <v>7.9193721179999996E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>70</v>
       </c>
@@ -14275,7 +14285,7 @@
         <v>8.7113093289999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>70</v>
       </c>
@@ -14315,7 +14325,7 @@
         <v>9.3211009819999996E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>70</v>
       </c>
@@ -14359,7 +14369,7 @@
         <v>0.1290380347</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>70</v>
       </c>
@@ -14403,7 +14413,7 @@
         <v>0.1247750603</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>70</v>
       </c>
@@ -14443,7 +14453,7 @@
         <v>8.1015176760000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>70</v>
       </c>
@@ -14483,12 +14493,12 @@
         <v>8.5065935600000003E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>70</v>
       </c>
       <c r="B310" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C310" t="s">
         <v>29</v>
@@ -14527,12 +14537,12 @@
         <v>7.9193721179999996E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>70</v>
       </c>
       <c r="B311" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C311" t="s">
         <v>29</v>
@@ -14567,12 +14577,12 @@
         <v>8.7113093289999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>70</v>
       </c>
       <c r="B312" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C312" t="s">
         <v>29</v>
@@ -14607,12 +14617,12 @@
         <v>9.3211009819999996E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>70</v>
       </c>
       <c r="B313" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C313" t="s">
         <v>29</v>
@@ -14651,12 +14661,12 @@
         <v>0.1290380347</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>70</v>
       </c>
       <c r="B314" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C314" t="s">
         <v>29</v>
@@ -14695,12 +14705,12 @@
         <v>0.1247750603</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>70</v>
       </c>
       <c r="B315" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C315" t="s">
         <v>29</v>
@@ -14735,12 +14745,12 @@
         <v>8.1015176760000002E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>70</v>
       </c>
       <c r="B316" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -14775,7 +14785,7 @@
         <v>8.5065935600000003E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>70</v>
       </c>
@@ -14819,7 +14829,7 @@
         <v>0.26925865199999999</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>70</v>
       </c>
@@ -14859,7 +14869,7 @@
         <v>0.2961845172</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>70</v>
       </c>
@@ -14899,7 +14909,7 @@
         <v>0.3169174334</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>70</v>
       </c>
@@ -14943,7 +14953,7 @@
         <v>0.43872931799999998</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>70</v>
       </c>
@@ -14987,7 +14997,7 @@
         <v>0.424235205</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>70</v>
       </c>
@@ -15027,7 +15037,7 @@
         <v>0.27545160099999999</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>70</v>
       </c>
@@ -15067,7 +15077,7 @@
         <v>0.28922418100000002</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>70</v>
       </c>
@@ -15111,7 +15121,7 @@
         <v>0.26925865199999999</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>70</v>
       </c>
@@ -15151,7 +15161,7 @@
         <v>0.2961845172</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>70</v>
       </c>
@@ -15191,7 +15201,7 @@
         <v>0.3169174334</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>70</v>
       </c>
@@ -15235,7 +15245,7 @@
         <v>0.43872931799999998</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>70</v>
       </c>
@@ -15279,7 +15289,7 @@
         <v>0.424235205</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>70</v>
       </c>
@@ -15319,7 +15329,7 @@
         <v>0.27545160099999999</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>70</v>
       </c>
@@ -15359,7 +15369,7 @@
         <v>0.28922418100000002</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>70</v>
       </c>
@@ -15403,7 +15413,7 @@
         <v>3.9596860589999998E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>70</v>
       </c>
@@ -15443,7 +15453,7 @@
         <v>4.355654665E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>70</v>
       </c>
@@ -15483,7 +15493,7 @@
         <v>4.6605504909999998E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>70</v>
       </c>
@@ -15527,7 +15537,7 @@
         <v>6.4519017349999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>70</v>
       </c>
@@ -15571,7 +15581,7 @@
         <v>6.2387530150000002E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>70</v>
       </c>
@@ -15611,7 +15621,7 @@
         <v>4.0507588380000001E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>70</v>
       </c>
@@ -15651,7 +15661,7 @@
         <v>4.2532967800000002E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>32</v>
       </c>
@@ -15695,7 +15705,7 @@
         <v>0.13867199999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>32</v>
       </c>
@@ -15738,7 +15748,7 @@
         <v>0.11556</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>32</v>
       </c>
@@ -15782,7 +15792,7 @@
         <v>0.1144044</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>32</v>
       </c>
@@ -15826,7 +15836,7 @@
         <v>0.12064464</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>32</v>
       </c>
@@ -15870,7 +15880,7 @@
         <v>0.16640640000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>32</v>
       </c>
@@ -15914,7 +15924,7 @@
         <v>0.11128428</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>32</v>
       </c>
@@ -15958,7 +15968,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>32</v>
       </c>
@@ -16001,7 +16011,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>32</v>
       </c>
@@ -16045,7 +16055,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -16089,7 +16099,7 @@
         <v>0.17091323999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>32</v>
       </c>
@@ -16133,7 +16143,7 @@
         <v>0.23574239999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>32</v>
       </c>
@@ -16177,7 +16187,7 @@
         <v>0.15765272999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>32</v>
       </c>
@@ -16221,7 +16231,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>32</v>
       </c>
@@ -16264,7 +16274,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>32</v>
       </c>
@@ -16308,7 +16318,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>32</v>
       </c>
@@ -16352,7 +16362,7 @@
         <v>0.17091323999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>32</v>
       </c>
@@ -16396,7 +16406,7 @@
         <v>0.23574239999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>32</v>
       </c>
@@ -16440,12 +16450,12 @@
         <v>0.15765272999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>32</v>
       </c>
       <c r="B356" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C356" t="s">
         <v>37</v>
@@ -16484,12 +16494,12 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>32</v>
       </c>
       <c r="B357" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C357" t="s">
         <v>37</v>
@@ -16527,12 +16537,12 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>32</v>
       </c>
       <c r="B358" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C358" t="s">
         <v>37</v>
@@ -16571,12 +16581,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>32</v>
       </c>
       <c r="B359" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C359" t="s">
         <v>37</v>
@@ -16615,12 +16625,12 @@
         <v>0.17091323999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>32</v>
       </c>
       <c r="B360" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C360" t="s">
         <v>37</v>
@@ -16659,12 +16669,12 @@
         <v>0.23574239999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>32</v>
       </c>
       <c r="B361" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C361" t="s">
         <v>37</v>
@@ -16703,7 +16713,7 @@
         <v>0.15765272999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>32</v>
       </c>
@@ -16747,7 +16757,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>32</v>
       </c>
@@ -16790,7 +16800,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>32</v>
       </c>
@@ -16834,7 +16844,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>32</v>
       </c>
@@ -16878,7 +16888,7 @@
         <v>0.17091323999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>32</v>
       </c>
@@ -16922,7 +16932,7 @@
         <v>0.23574239999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>32</v>
       </c>
@@ -16966,7 +16976,7 @@
         <v>0.15765272999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>32</v>
       </c>
@@ -17010,7 +17020,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>32</v>
       </c>
@@ -17053,7 +17063,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>32</v>
       </c>
@@ -17097,7 +17107,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>32</v>
       </c>
@@ -17141,7 +17151,7 @@
         <v>0.17091323999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>32</v>
       </c>
@@ -17185,7 +17195,7 @@
         <v>0.23574239999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>32</v>
       </c>
@@ -17229,7 +17239,7 @@
         <v>0.15765272999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>32</v>
       </c>
@@ -17273,7 +17283,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>32</v>
       </c>
@@ -17316,7 +17326,7 @@
         <v>0.14445</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>32</v>
       </c>
@@ -17360,7 +17370,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -17404,7 +17414,7 @@
         <v>0.15080579999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>32</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>0.208008</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -17492,7 +17502,7 @@
         <v>0.13910534999999999</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -17536,7 +17546,7 @@
         <v>0.65839891299999997</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -17576,7 +17586,7 @@
         <v>0.4197293071</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>6</v>
       </c>
@@ -17620,7 +17630,7 @@
         <v>0.55464089670000005</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>6</v>
       </c>
@@ -17660,7 +17670,7 @@
         <v>0.56786906250000002</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>6</v>
       </c>
@@ -17700,7 +17710,7 @@
         <v>0.54811709509999995</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -17744,7 +17754,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>6</v>
       </c>
@@ -17784,7 +17794,7 @@
         <v>0.2340308864</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -17828,7 +17838,7 @@
         <v>0.30925431819999999</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -17868,7 +17878,7 @@
         <v>0.31663002270000001</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>6</v>
       </c>
@@ -17908,7 +17918,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>6</v>
       </c>
@@ -17952,7 +17962,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -17992,7 +18002,7 @@
         <v>0.2340308864</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -18036,7 +18046,7 @@
         <v>0.30925431819999999</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -18076,7 +18086,7 @@
         <v>0.31663002270000001</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -18116,12 +18126,12 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>6</v>
       </c>
       <c r="B395" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C395" t="s">
         <v>17</v>
@@ -18160,12 +18170,12 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>6</v>
       </c>
       <c r="B396" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C396" t="s">
         <v>17</v>
@@ -18200,12 +18210,12 @@
         <v>0.2340308864</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C397" t="s">
         <v>17</v>
@@ -18244,12 +18254,12 @@
         <v>0.30925431819999999</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C398" t="s">
         <v>17</v>
@@ -18284,12 +18294,12 @@
         <v>0.31663002270000001</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C399" t="s">
         <v>17</v>
@@ -18324,7 +18334,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>6</v>
       </c>
@@ -18368,7 +18378,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>6</v>
       </c>
@@ -18408,7 +18418,7 @@
         <v>0.2340308864</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>6</v>
       </c>
@@ -18452,7 +18462,7 @@
         <v>0.30925431819999999</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>6</v>
       </c>
@@ -18492,7 +18502,7 @@
         <v>0.31663002270000001</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>6</v>
       </c>
@@ -18532,7 +18542,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>6</v>
       </c>
@@ -18576,7 +18586,7 @@
         <v>0.35631000000000002</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>6</v>
       </c>
@@ -18616,7 +18626,7 @@
         <v>0.22714762499999999</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>6</v>
       </c>
@@ -18660,7 +18670,7 @@
         <v>0.30015860290000002</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>6</v>
       </c>
@@ -18700,7 +18710,7 @@
         <v>0.307317375</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -18740,7 +18750,7 @@
         <v>0.29662807499999999</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>6</v>
       </c>
@@ -18784,7 +18794,7 @@
         <v>0.36710727269999999</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>6</v>
       </c>
@@ -18824,7 +18834,7 @@
         <v>0.2340308864</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>6</v>
       </c>
@@ -18868,7 +18878,7 @@
         <v>0.30925431819999999</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -18908,7 +18918,7 @@
         <v>0.31663002270000001</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -18948,7 +18958,7 @@
         <v>0.30561680450000001</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>70</v>
       </c>
@@ -18992,7 +19002,7 @@
         <v>7.4721309999999999E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>70</v>
       </c>
@@ -19032,7 +19042,7 @@
         <v>8.2193441000000006E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>70</v>
       </c>
@@ -19072,7 +19082,7 @@
         <v>8.7946981869999996E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>70</v>
       </c>
@@ -19116,7 +19126,7 @@
         <v>9.8727562500000005E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>70</v>
       </c>
@@ -19160,7 +19170,7 @@
         <v>9.7670670000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>70</v>
       </c>
@@ -19200,7 +19210,7 @@
         <v>7.7672801750000006E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>70</v>
       </c>
@@ -19240,7 +19250,7 @@
         <v>8.1556441830000007E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>70</v>
       </c>
@@ -19284,7 +19294,7 @@
         <v>7.9116681179999995E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>70</v>
       </c>
@@ -19324,7 +19334,7 @@
         <v>8.7028349290000001E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>70</v>
       </c>
@@ -19364,7 +19374,7 @@
         <v>9.3120333740000005E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>70</v>
       </c>
@@ -19408,7 +19418,7 @@
         <v>0.1045350662</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>70</v>
       </c>
@@ -19452,7 +19462,7 @@
         <v>0.10341600350000001</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>70</v>
       </c>
@@ -19492,7 +19502,7 @@
         <v>8.2241790080000002E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>70</v>
       </c>
@@ -19532,7 +19542,7 @@
         <v>8.6353879590000002E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>70</v>
       </c>
@@ -19576,7 +19586,7 @@
         <v>7.9116681179999995E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>70</v>
       </c>
@@ -19616,7 +19626,7 @@
         <v>8.7028349290000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>70</v>
       </c>
@@ -19656,7 +19666,7 @@
         <v>9.3120333740000005E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>70</v>
       </c>
@@ -19700,7 +19710,7 @@
         <v>0.1045350662</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>70</v>
       </c>
@@ -19744,7 +19754,7 @@
         <v>0.10341600350000001</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>70</v>
       </c>
@@ -19784,7 +19794,7 @@
         <v>8.2241790080000002E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>70</v>
       </c>
@@ -19824,12 +19834,12 @@
         <v>8.6353879590000002E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>70</v>
       </c>
       <c r="B436" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C436" t="s">
         <v>29</v>
@@ -19868,12 +19878,12 @@
         <v>7.9116681179999995E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>70</v>
       </c>
       <c r="B437" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C437" t="s">
         <v>29</v>
@@ -19908,12 +19918,12 @@
         <v>8.7028349290000001E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>70</v>
       </c>
       <c r="B438" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C438" t="s">
         <v>29</v>
@@ -19948,12 +19958,12 @@
         <v>9.3120333740000005E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>70</v>
       </c>
       <c r="B439" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C439" t="s">
         <v>29</v>
@@ -19992,12 +20002,12 @@
         <v>0.1045350662</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>70</v>
       </c>
       <c r="B440" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C440" t="s">
         <v>29</v>
@@ -20036,12 +20046,12 @@
         <v>0.10341600350000001</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>70</v>
       </c>
       <c r="B441" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C441" t="s">
         <v>29</v>
@@ -20076,12 +20086,12 @@
         <v>8.2241790080000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>70</v>
       </c>
       <c r="B442" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C442" t="s">
         <v>29</v>
@@ -20116,7 +20126,7 @@
         <v>8.6353879590000002E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>70</v>
       </c>
@@ -20160,7 +20170,7 @@
         <v>0.26899671600000002</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>70</v>
       </c>
@@ -20200,7 +20210,7 @@
         <v>0.29589638759999998</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>70</v>
       </c>
@@ -20240,7 +20250,7 @@
         <v>0.31660913470000002</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>70</v>
       </c>
@@ -20284,7 +20294,7 @@
         <v>0.35541922500000001</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>70</v>
       </c>
@@ -20328,7 +20338,7 @@
         <v>0.35161441199999999</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>70</v>
       </c>
@@ -20368,7 +20378,7 @@
         <v>0.27962208630000002</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>70</v>
       </c>
@@ -20408,7 +20418,7 @@
         <v>0.29360319060000001</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>70</v>
       </c>
@@ -20452,7 +20462,7 @@
         <v>0.26899671600000002</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>70</v>
       </c>
@@ -20492,7 +20502,7 @@
         <v>0.29589638759999998</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>70</v>
       </c>
@@ -20532,7 +20542,7 @@
         <v>0.31660913470000002</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>70</v>
       </c>
@@ -20576,7 +20586,7 @@
         <v>0.35541922500000001</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>70</v>
       </c>
@@ -20620,7 +20630,7 @@
         <v>0.35161441199999999</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>70</v>
       </c>
@@ -20660,7 +20670,7 @@
         <v>0.27962208630000002</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>70</v>
       </c>
@@ -20700,7 +20710,7 @@
         <v>0.29360319060000001</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>70</v>
       </c>
@@ -20744,7 +20754,7 @@
         <v>3.9558340589999998E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>70</v>
       </c>
@@ -20784,7 +20794,7 @@
         <v>4.3514174650000001E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>70</v>
       </c>
@@ -20824,7 +20834,7 @@
         <v>4.6560166870000003E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>70</v>
       </c>
@@ -20868,7 +20878,7 @@
         <v>5.2267533089999998E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>70</v>
       </c>
@@ -20912,7 +20922,7 @@
         <v>5.1708001759999997E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>70</v>
       </c>
@@ -20952,7 +20962,7 @@
         <v>4.1120895040000001E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>70</v>
       </c>
@@ -20992,7 +21002,7 @@
         <v>4.317693979E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>32</v>
       </c>
@@ -21036,7 +21046,7 @@
         <v>0.13867199999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>32</v>
       </c>
@@ -21079,7 +21089,7 @@
         <v>0.11556</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>32</v>
       </c>
@@ -21123,7 +21133,7 @@
         <v>0.1144044</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>32</v>
       </c>
@@ -21167,7 +21177,7 @@
         <v>0.11752451999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>32</v>
       </c>
@@ -21211,7 +21221,7 @@
         <v>0.1456056</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>32</v>
       </c>
@@ -21255,7 +21265,7 @@
         <v>0.11232432000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>32</v>
       </c>
@@ -21299,7 +21309,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>32</v>
       </c>
@@ -21342,7 +21352,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>32</v>
       </c>
@@ -21386,7 +21396,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>32</v>
       </c>
@@ -21430,7 +21440,7 @@
         <v>0.16649306999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>32</v>
       </c>
@@ -21474,7 +21484,7 @@
         <v>0.2062746</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>32</v>
       </c>
@@ -21518,7 +21528,7 @@
         <v>0.15912612000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>32</v>
       </c>
@@ -21562,7 +21572,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>32</v>
       </c>
@@ -21605,7 +21615,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:13">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>32</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>32</v>
       </c>
@@ -21693,7 +21703,7 @@
         <v>0.16649306999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>32</v>
       </c>
@@ -21737,7 +21747,7 @@
         <v>0.2062746</v>
       </c>
     </row>
-    <row r="481" spans="1:13">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>32</v>
       </c>
@@ -21781,12 +21791,12 @@
         <v>0.15912612000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:13">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>32</v>
       </c>
       <c r="B482" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C482" t="s">
         <v>37</v>
@@ -21825,12 +21835,12 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:13">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>32</v>
       </c>
       <c r="B483" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C483" t="s">
         <v>37</v>
@@ -21868,12 +21878,12 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:13">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>32</v>
       </c>
       <c r="B484" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C484" t="s">
         <v>37</v>
@@ -21912,12 +21922,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:13">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>32</v>
       </c>
       <c r="B485" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C485" t="s">
         <v>37</v>
@@ -21956,12 +21966,12 @@
         <v>0.16649306999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:13">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>32</v>
       </c>
       <c r="B486" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C486" t="s">
         <v>37</v>
@@ -22000,12 +22010,12 @@
         <v>0.2062746</v>
       </c>
     </row>
-    <row r="487" spans="1:13">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>32</v>
       </c>
       <c r="B487" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C487" t="s">
         <v>37</v>
@@ -22044,7 +22054,7 @@
         <v>0.15912612000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:13">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>32</v>
       </c>
@@ -22088,7 +22098,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:13">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>32</v>
       </c>
@@ -22131,7 +22141,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:13">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>32</v>
       </c>
@@ -22175,7 +22185,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:13">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>32</v>
       </c>
@@ -22219,7 +22229,7 @@
         <v>0.16649306999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:13">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>32</v>
       </c>
@@ -22263,7 +22273,7 @@
         <v>0.2062746</v>
       </c>
     </row>
-    <row r="493" spans="1:13">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>32</v>
       </c>
@@ -22307,7 +22317,7 @@
         <v>0.15912612000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:13">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>32</v>
       </c>
@@ -22351,7 +22361,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:13">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>32</v>
       </c>
@@ -22394,7 +22404,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:13">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>32</v>
       </c>
@@ -22438,7 +22448,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>32</v>
       </c>
@@ -22482,7 +22492,7 @@
         <v>0.16649306999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:13">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>32</v>
       </c>
@@ -22526,7 +22536,7 @@
         <v>0.2062746</v>
       </c>
     </row>
-    <row r="499" spans="1:13">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>32</v>
       </c>
@@ -22570,7 +22580,7 @@
         <v>0.15912612000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:13">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>32</v>
       </c>
@@ -22614,7 +22624,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:13">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>32</v>
       </c>
@@ -22657,7 +22667,7 @@
         <v>0.14445</v>
       </c>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>32</v>
       </c>
@@ -22701,7 +22711,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:13">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>32</v>
       </c>
@@ -22745,7 +22755,7 @@
         <v>0.14690565</v>
       </c>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -22789,7 +22799,7 @@
         <v>0.182007</v>
       </c>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>32</v>
       </c>
@@ -22833,7 +22843,7 @@
         <v>0.14040540000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:13">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -22877,7 +22887,7 @@
         <v>0.65787554349999999</v>
       </c>
     </row>
-    <row r="507" spans="1:13">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -22917,7 +22927,7 @@
         <v>0.40952752580000001</v>
       </c>
     </row>
-    <row r="508" spans="1:13">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -22961,7 +22971,7 @@
         <v>0.53136403529999998</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -23001,7 +23011,7 @@
         <v>0.57728578939999997</v>
       </c>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -23041,7 +23051,7 @@
         <v>0.54274732339999998</v>
       </c>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -23085,7 +23095,7 @@
         <v>0.36681545450000003</v>
       </c>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>6</v>
       </c>
@@ -23125,7 +23135,7 @@
         <v>0.22834262050000001</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>6</v>
       </c>
@@ -23169,7 +23179,7 @@
         <v>0.29627570450000001</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -23209,7 +23219,7 @@
         <v>0.32188056139999999</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -23249,7 +23259,7 @@
         <v>0.30262275</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>6</v>
       </c>
@@ -23293,7 +23303,7 @@
         <v>0.36681545450000003</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -23333,7 +23343,7 @@
         <v>0.22834262050000001</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>6</v>
       </c>
@@ -23377,7 +23387,7 @@
         <v>0.29627570450000001</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>6</v>
       </c>
@@ -23417,7 +23427,7 @@
         <v>0.32188056139999999</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -23457,12 +23467,12 @@
         <v>0.30262275</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>6</v>
       </c>
       <c r="B521" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C521" t="s">
         <v>17</v>
@@ -23501,12 +23511,12 @@
         <v>0.36681545450000003</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>6</v>
       </c>
       <c r="B522" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C522" t="s">
         <v>17</v>
@@ -23541,12 +23551,12 @@
         <v>0.22834262050000001</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>6</v>
       </c>
       <c r="B523" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C523" t="s">
         <v>17</v>
@@ -23585,12 +23595,12 @@
         <v>0.29627570450000001</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>6</v>
       </c>
       <c r="B524" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C524" t="s">
         <v>17</v>
@@ -23625,12 +23635,12 @@
         <v>0.32188056139999999</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>6</v>
       </c>
       <c r="B525" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C525" t="s">
         <v>17</v>
@@ -23665,7 +23675,7 @@
         <v>0.30262275</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -23709,7 +23719,7 @@
         <v>0.36681545450000003</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -23749,7 +23759,7 @@
         <v>0.22834262050000001</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>6</v>
       </c>
@@ -23793,7 +23803,7 @@
         <v>0.29627570450000001</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>6</v>
       </c>
@@ -23833,7 +23843,7 @@
         <v>0.32188056139999999</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -23873,7 +23883,7 @@
         <v>0.30262275</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>6</v>
       </c>
@@ -23917,7 +23927,7 @@
         <v>0.3560267647</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>6</v>
       </c>
@@ -23957,7 +23967,7 @@
         <v>0.221626661</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -24001,7 +24011,7 @@
         <v>0.28756171320000001</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>6</v>
       </c>
@@ -24041,7 +24051,7 @@
         <v>0.31241348600000002</v>
       </c>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -24081,7 +24091,7 @@
         <v>0.29372208090000002</v>
       </c>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -24125,7 +24135,7 @@
         <v>0.36681545450000003</v>
       </c>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -24165,7 +24175,7 @@
         <v>0.22834262050000001</v>
       </c>
     </row>
-    <row r="538" spans="1:13">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -24209,7 +24219,7 @@
         <v>0.29627570450000001</v>
       </c>
     </row>
-    <row r="539" spans="1:13">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>6</v>
       </c>
@@ -24249,7 +24259,7 @@
         <v>0.32188056139999999</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>6</v>
       </c>
@@ -24289,7 +24299,7 @@
         <v>0.30262275</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>70</v>
       </c>
@@ -24333,7 +24343,7 @@
         <v>7.4661389999999994E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>70</v>
       </c>
@@ -24373,7 +24383,7 @@
         <v>8.2127529000000005E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>70</v>
       </c>
@@ -24413,7 +24423,7 @@
         <v>8.7876456029999994E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>70</v>
       </c>
@@ -24457,7 +24467,7 @@
         <v>8.1018795000000005E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>70</v>
       </c>
@@ -24501,7 +24511,7 @@
         <v>7.8990075000000007E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>70</v>
       </c>
@@ -24541,7 +24551,7 @@
         <v>7.8842427840000007E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>70</v>
       </c>
@@ -24581,7 +24591,7 @@
         <v>8.2784549230000004E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>70</v>
       </c>
@@ -24625,7 +24635,7 @@
         <v>7.9053236469999996E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>70</v>
       </c>
@@ -24665,7 +24675,7 @@
         <v>8.695856012E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="14" customHeight="1">
+    <row r="550" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>70</v>
       </c>
@@ -24705,7 +24715,7 @@
         <v>9.3045659330000002E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>70</v>
       </c>
@@ -24749,7 +24759,7 @@
         <v>8.5784606469999997E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>70</v>
       </c>
@@ -24793,7 +24803,7 @@
         <v>8.3636550000000004E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>70</v>
       </c>
@@ -24833,7 +24843,7 @@
         <v>8.3480217709999999E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>70</v>
       </c>
@@ -24873,7 +24883,7 @@
         <v>8.7654228599999995E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>70</v>
       </c>
@@ -24917,7 +24927,7 @@
         <v>7.9053236469999996E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>70</v>
       </c>
@@ -24957,7 +24967,7 @@
         <v>8.695856012E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>70</v>
       </c>
@@ -24997,7 +25007,7 @@
         <v>9.3045659330000002E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>70</v>
       </c>
@@ -25041,7 +25051,7 @@
         <v>8.5784606469999997E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>70</v>
       </c>
@@ -25085,7 +25095,7 @@
         <v>8.3636550000000004E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>70</v>
       </c>
@@ -25125,7 +25135,7 @@
         <v>8.3480217709999999E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>70</v>
       </c>
@@ -25165,12 +25175,12 @@
         <v>8.7654228599999995E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>70</v>
       </c>
       <c r="B562" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C562" t="s">
         <v>29</v>
@@ -25209,12 +25219,12 @@
         <v>7.9053236469999996E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>70</v>
       </c>
       <c r="B563" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C563" t="s">
         <v>29</v>
@@ -25249,12 +25259,12 @@
         <v>8.695856012E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>70</v>
       </c>
       <c r="B564" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C564" t="s">
         <v>29</v>
@@ -25289,12 +25299,12 @@
         <v>9.3045659330000002E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>70</v>
       </c>
       <c r="B565" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C565" t="s">
         <v>29</v>
@@ -25333,12 +25343,12 @@
         <v>8.5784606469999997E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>70</v>
       </c>
       <c r="B566" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C566" t="s">
         <v>29</v>
@@ -25377,12 +25387,12 @@
         <v>8.3636550000000004E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>70</v>
       </c>
       <c r="B567" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C567" t="s">
         <v>29</v>
@@ -25417,12 +25427,12 @@
         <v>8.3480217709999999E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>70</v>
       </c>
       <c r="B568" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C568" t="s">
         <v>29</v>
@@ -25457,7 +25467,7 @@
         <v>8.7654228599999995E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>70</v>
       </c>
@@ -25501,7 +25511,7 @@
         <v>0.26878100399999999</v>
       </c>
     </row>
-    <row r="570" spans="1:13">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>70</v>
       </c>
@@ -25541,7 +25551,7 @@
         <v>0.29565910439999998</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>70</v>
       </c>
@@ -25581,7 +25591,7 @@
         <v>0.31635524170000001</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>70</v>
       </c>
@@ -25625,7 +25635,7 @@
         <v>0.29166766199999999</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>70</v>
       </c>
@@ -25669,7 +25679,7 @@
         <v>0.28436426999999997</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>70</v>
       </c>
@@ -25709,7 +25719,7 @@
         <v>0.28383274019999999</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>70</v>
       </c>
@@ -25749,7 +25759,7 @@
         <v>0.29802437720000002</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>70</v>
       </c>
@@ -25793,7 +25803,7 @@
         <v>0.26878100399999999</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>70</v>
       </c>
@@ -25833,7 +25843,7 @@
         <v>0.29565910439999998</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>70</v>
       </c>
@@ -25873,7 +25883,7 @@
         <v>0.31635524170000001</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>70</v>
       </c>
@@ -25917,7 +25927,7 @@
         <v>0.29166766199999999</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>70</v>
       </c>
@@ -25961,7 +25971,7 @@
         <v>0.28436426999999997</v>
       </c>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>70</v>
       </c>
@@ -26001,7 +26011,7 @@
         <v>0.28383274019999999</v>
       </c>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>70</v>
       </c>
@@ -26041,7 +26051,7 @@
         <v>0.29802437720000002</v>
       </c>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>70</v>
       </c>
@@ -26085,7 +26095,7 @@
         <v>3.9526618239999999E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>70</v>
       </c>
@@ -26125,7 +26135,7 @@
         <v>4.347928006E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>70</v>
       </c>
@@ -26165,7 +26175,7 @@
         <v>4.6522829660000001E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>70</v>
       </c>
@@ -26209,7 +26219,7 @@
         <v>4.2892303239999999E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>70</v>
       </c>
@@ -26253,7 +26263,7 @@
         <v>4.1818275000000002E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>70</v>
       </c>
@@ -26293,7 +26303,7 @@
         <v>4.174010886E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>70</v>
       </c>
@@ -26333,7 +26343,7 @@
         <v>4.3827114299999997E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>32</v>
       </c>
@@ -26377,7 +26387,7 @@
         <v>0.13867199999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>32</v>
       </c>
@@ -26420,7 +26430,7 @@
         <v>0.11556</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>32</v>
       </c>
@@ -26464,7 +26474,7 @@
         <v>0.1144044</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>32</v>
       </c>
@@ -26508,7 +26518,7 @@
         <v>0.1144044</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>32</v>
       </c>
@@ -26552,7 +26562,7 @@
         <v>0.13000500000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>32</v>
       </c>
@@ -26596,7 +26606,7 @@
         <v>0.11336436</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>32</v>
       </c>
@@ -26640,7 +26650,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>32</v>
       </c>
@@ -26683,7 +26693,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>32</v>
       </c>
@@ -26727,7 +26737,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>32</v>
       </c>
@@ -26771,7 +26781,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>32</v>
       </c>
@@ -26815,7 +26825,7 @@
         <v>0.18417375</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>32</v>
       </c>
@@ -26859,7 +26869,7 @@
         <v>0.16059951</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>32</v>
       </c>
@@ -26903,7 +26913,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>32</v>
       </c>
@@ -26946,7 +26956,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>32</v>
       </c>
@@ -26990,7 +27000,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>32</v>
       </c>
@@ -27034,7 +27044,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>32</v>
       </c>
@@ -27078,7 +27088,7 @@
         <v>0.18417375</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>32</v>
       </c>
@@ -27122,12 +27132,12 @@
         <v>0.16059951</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>32</v>
       </c>
       <c r="B608" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C608" t="s">
         <v>37</v>
@@ -27166,12 +27176,12 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>32</v>
       </c>
       <c r="B609" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C609" t="s">
         <v>37</v>
@@ -27209,12 +27219,12 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>32</v>
       </c>
       <c r="B610" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C610" t="s">
         <v>37</v>
@@ -27253,12 +27263,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>32</v>
       </c>
       <c r="B611" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C611" t="s">
         <v>37</v>
@@ -27297,12 +27307,12 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>32</v>
       </c>
       <c r="B612" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C612" t="s">
         <v>37</v>
@@ -27341,12 +27351,12 @@
         <v>0.18417375</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>32</v>
       </c>
       <c r="B613" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C613" t="s">
         <v>37</v>
@@ -27385,7 +27395,7 @@
         <v>0.16059951</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>32</v>
       </c>
@@ -27429,7 +27439,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>32</v>
       </c>
@@ -27472,7 +27482,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>32</v>
       </c>
@@ -27516,7 +27526,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>32</v>
       </c>
@@ -27560,7 +27570,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>32</v>
       </c>
@@ -27604,7 +27614,7 @@
         <v>0.18417375</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>32</v>
       </c>
@@ -27648,7 +27658,7 @@
         <v>0.16059951</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>32</v>
       </c>
@@ -27692,7 +27702,7 @@
         <v>0.19645199999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>32</v>
       </c>
@@ -27735,7 +27745,7 @@
         <v>0.16370999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>32</v>
       </c>
@@ -27779,7 +27789,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>32</v>
       </c>
@@ -27823,7 +27833,7 @@
         <v>0.16207289999999999</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>32</v>
       </c>
@@ -27867,7 +27877,7 @@
         <v>0.18417375</v>
       </c>
     </row>
-    <row r="625" spans="1:13">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>32</v>
       </c>
@@ -27911,7 +27921,7 @@
         <v>0.16059951</v>
       </c>
     </row>
-    <row r="626" spans="1:13">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>32</v>
       </c>
@@ -27955,7 +27965,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:13">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>32</v>
       </c>
@@ -27998,7 +28008,7 @@
         <v>0.14445</v>
       </c>
     </row>
-    <row r="628" spans="1:13">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>32</v>
       </c>
@@ -28042,7 +28052,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:13">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>32</v>
       </c>
@@ -28086,7 +28096,7 @@
         <v>0.14300550000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:13">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>32</v>
       </c>
@@ -28130,7 +28140,7 @@
         <v>0.16250624999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:13">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>32</v>
       </c>
@@ -28188,21 +28198,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28216,7 +28226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -28237,7 +28247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -28258,7 +28268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -28279,7 +28289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -28300,7 +28310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28321,7 +28331,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -28342,7 +28352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -28363,7 +28373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -28384,7 +28394,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -28405,7 +28415,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -28425,7 +28435,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -28445,7 +28455,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -28464,7 +28474,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -28483,7 +28493,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -28502,7 +28512,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -28521,7 +28531,7 @@
       </c>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -28535,7 +28545,7 @@
         <v>121.708</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -28550,7 +28560,7 @@
         <v>1.2569999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -28565,7 +28575,7 @@
         <v>1.3536999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -28580,7 +28590,7 @@
         <v>69.777000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -28595,7 +28605,7 @@
         <v>100.958</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -28624,16 +28634,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H48" sqref="C48:H49"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>104</v>
       </c>
@@ -28663,7 +28673,7 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -28691,7 +28701,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -28719,7 +28729,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="19">
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>105</v>
       </c>
@@ -28773,7 +28783,7 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -28801,7 +28811,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -28831,7 +28841,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>118</v>
       </c>
@@ -28903,7 +28913,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>119</v>
       </c>
@@ -28975,7 +28985,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>120</v>
       </c>
@@ -29049,7 +29059,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>121</v>
       </c>
@@ -29123,7 +29133,7 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -29151,7 +29161,7 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>123</v>
       </c>
@@ -29181,7 +29191,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>118</v>
       </c>
@@ -29253,7 +29263,7 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>119</v>
       </c>
@@ -29325,7 +29335,7 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>120</v>
       </c>
@@ -29399,7 +29409,7 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>121</v>
       </c>
@@ -29473,7 +29483,7 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -29501,7 +29511,7 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>124</v>
       </c>
@@ -29531,7 +29541,7 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
@@ -29603,7 +29613,7 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>119</v>
       </c>
@@ -29675,7 +29685,7 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>120</v>
       </c>
@@ -29749,7 +29759,7 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>121</v>
       </c>
@@ -29823,7 +29833,7 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -29851,7 +29861,7 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
@@ -29881,7 +29891,7 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15">
@@ -29951,7 +29961,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -30021,7 +30031,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>100</v>
       </c>
@@ -30095,7 +30105,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>102</v>
       </c>
@@ -30169,7 +30179,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>103</v>
       </c>
@@ -30243,7 +30253,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -30271,7 +30281,7 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -30299,7 +30309,7 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
     </row>
-    <row r="32" spans="1:26" ht="19">
+    <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>125</v>
       </c>
@@ -30353,7 +30363,7 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>136</v>
       </c>
@@ -30383,7 +30393,7 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>118</v>
       </c>
@@ -30455,7 +30465,7 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>119</v>
       </c>
@@ -30527,7 +30537,7 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>120</v>
       </c>
@@ -30601,7 +30611,7 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>121</v>
       </c>
@@ -30675,7 +30685,7 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -30703,7 +30713,7 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>137</v>
       </c>
@@ -30733,7 +30743,7 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>118</v>
       </c>
@@ -30805,7 +30815,7 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>119</v>
       </c>
@@ -30877,7 +30887,7 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>120</v>
       </c>
@@ -30951,7 +30961,7 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>121</v>
       </c>
@@ -31025,7 +31035,7 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -31053,7 +31063,7 @@
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>138</v>
       </c>
@@ -31083,7 +31093,7 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>118</v>
       </c>
@@ -31155,7 +31165,7 @@
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>119</v>
       </c>
@@ -31227,7 +31237,7 @@
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>120</v>
       </c>
@@ -31301,7 +31311,7 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>121</v>
       </c>
@@ -31375,7 +31385,7 @@
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -31403,7 +31413,7 @@
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>139</v>
       </c>
@@ -31433,7 +31443,7 @@
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>118</v>
       </c>
@@ -31505,7 +31515,7 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>119</v>
       </c>
@@ -31577,7 +31587,7 @@
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>120</v>
       </c>
@@ -31651,7 +31661,7 @@
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>121</v>
       </c>
@@ -31725,7 +31735,7 @@
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -31753,7 +31763,7 @@
       <c r="Y56" s="14"/>
       <c r="Z56" s="14"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -31781,7 +31791,7 @@
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -31811,6 +31821,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31823,14 +31834,14 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -31844,12 +31855,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -31858,7 +31869,7 @@
         <v>1.4628623188405796</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -31867,7 +31878,7 @@
         <v>1.0778985507246377</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -31876,7 +31887,7 @@
         <v>0.92391304347826086</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
@@ -31887,7 +31898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>43</v>
@@ -31899,10 +31910,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -31919,12 +31930,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -31941,7 +31952,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -31958,7 +31969,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -31975,7 +31986,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -31983,32 +31994,32 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -32022,7 +32033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
@@ -32030,7 +32041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
@@ -32038,7 +32049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
@@ -32046,7 +32057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -32054,7 +32065,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
@@ -32062,7 +32073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
@@ -32070,7 +32081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>29</v>
       </c>
@@ -32078,7 +32089,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>30</v>
       </c>
@@ -32086,7 +32097,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
@@ -32094,7 +32105,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
@@ -32105,7 +32116,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
@@ -32121,7 +32132,7 @@
         <v>1233.0827067669172</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>33</v>
       </c>
@@ -32137,7 +32148,7 @@
         <v>4854.3689320388348</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
@@ -32153,7 +32164,7 @@
         <v>1206.8965517241381</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>39</v>
       </c>
@@ -32169,7 +32180,7 @@
         <v>1724.137931034483</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>60</v>
       </c>
@@ -32178,7 +32189,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -32186,7 +32197,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -32195,7 +32206,7 @@
         <v>18.137499999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>64</v>
       </c>
@@ -32204,7 +32215,7 @@
         <v>1840.1102687801517</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -32212,7 +32223,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>67</v>
       </c>
@@ -32223,7 +32234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>69</v>
       </c>
@@ -32232,7 +32243,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>93</v>
       </c>
@@ -32240,7 +32251,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G66" s="1" t="s">
         <v>149</v>
       </c>
@@ -32248,7 +32259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -32273,7 +32284,7 @@
         <v>0.13867200000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>32</v>
       </c>
@@ -32297,7 +32308,7 @@
         <v>0.11556000000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>32</v>
       </c>
@@ -32322,7 +32333,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>32</v>
       </c>
@@ -32347,7 +32358,7 @@
         <v>0.16640640000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>32</v>
       </c>
@@ -32372,7 +32383,7 @@
         <v>0.27734400000000003</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>32</v>
       </c>
@@ -32397,7 +32408,7 @@
         <v>0.1456056</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>32</v>
       </c>
@@ -32422,7 +32433,7 @@
         <v>0.19645200000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>32</v>
       </c>
@@ -32446,7 +32457,7 @@
         <v>0.16371000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>32</v>
       </c>
@@ -32471,7 +32482,7 @@
         <v>0.21609720000000007</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>32</v>
       </c>
@@ -32496,7 +32507,7 @@
         <v>0.23574240000000005</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>32</v>
       </c>
@@ -32521,7 +32532,7 @@
         <v>0.39290400000000009</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>32</v>
       </c>
@@ -32546,7 +32557,7 @@
         <v>0.20627460000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>32</v>
       </c>
@@ -32571,7 +32582,7 @@
         <v>0.13867200000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>32</v>
       </c>
@@ -32595,7 +32606,7 @@
         <v>0.11556000000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>32</v>
       </c>
@@ -32620,7 +32631,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>32</v>
       </c>
@@ -32645,7 +32656,7 @@
         <v>0.16363296000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>32</v>
       </c>
@@ -32670,7 +32681,7 @@
         <v>0.24960960000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>32</v>
       </c>
@@ -32695,7 +32706,7 @@
         <v>0.14699232000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>32</v>
       </c>
@@ -32720,7 +32731,7 @@
         <v>0.13867200000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>32</v>
       </c>
@@ -32744,7 +32755,7 @@
         <v>0.11556000000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>32</v>
       </c>
@@ -32769,7 +32780,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>32</v>
       </c>
@@ -32794,7 +32805,7 @@
         <v>0.16085952000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>32</v>
       </c>
@@ -32819,7 +32830,7 @@
         <v>0.22187520000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>32</v>
       </c>
@@ -32844,7 +32855,7 @@
         <v>0.14837904000000002</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>32</v>
       </c>
@@ -32869,7 +32880,7 @@
         <v>0.13867200000000002</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>32</v>
       </c>
@@ -32893,7 +32904,7 @@
         <v>0.11556000000000001</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>32</v>
       </c>
@@ -32918,7 +32929,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>32</v>
       </c>
@@ -32943,7 +32954,7 @@
         <v>0.15669936000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>32</v>
       </c>
@@ -32968,7 +32979,7 @@
         <v>0.1941408</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>32</v>
       </c>
@@ -32993,7 +33004,7 @@
         <v>0.14976576</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>32</v>
       </c>
@@ -33018,7 +33029,7 @@
         <v>0.13867200000000002</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>32</v>
       </c>
@@ -33042,7 +33053,7 @@
         <v>0.11556000000000001</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>32</v>
       </c>
@@ -33067,7 +33078,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>32</v>
       </c>
@@ -33092,7 +33103,7 @@
         <v>0.15253920000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>32</v>
       </c>
@@ -33117,7 +33128,7 @@
         <v>0.17333999999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>32</v>
       </c>
@@ -33147,7 +33158,8 @@
     <hyperlink ref="D52" r:id="rId1" xr:uid="{B564EED6-3808-407C-A587-2FE7C0C93BC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33156,19 +33168,19 @@
   <dimension ref="B2:K69"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2022</v>
       </c>
@@ -33176,7 +33188,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>142</v>
       </c>
@@ -33195,7 +33207,7 @@
         <v>7.9852885703508107</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -33214,7 +33226,7 @@
         <v>9.6925688419464358</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>144</v>
       </c>
@@ -33233,7 +33245,7 @@
         <v>0.50999622783855147</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -33252,7 +33264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -33271,7 +33283,7 @@
         <v>0.20935496039230478</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -33290,7 +33302,7 @@
         <v>2.0316861561674839</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -33309,12 +33321,12 @@
         <v>1.9089023010184836</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -33322,7 +33334,7 @@
         <v>0.10471169800000001</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -33334,7 +33346,7 @@
         <v>0.11518286780000002</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -33342,7 +33354,7 @@
         <v>0.16249234000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -33350,7 +33362,7 @@
         <v>0.15712415000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -33362,7 +33374,7 @@
         <v>0.1308896225</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -33374,7 +33386,7 @@
         <v>0.13403097344000001</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>140</v>
       </c>
@@ -33389,7 +33401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -33413,7 +33425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -33428,7 +33440,7 @@
         <v>8.8190044140000021E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -33442,7 +33454,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -33456,7 +33468,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -33471,7 +33483,7 @@
         <v>9.8904722400000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -33486,7 +33498,7 @@
         <v>0.10384995852000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>140</v>
       </c>
@@ -33498,7 +33510,7 @@
         <v>7.4847570000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -33516,7 +33528,7 @@
         <v>8.2332327000000011E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -33531,7 +33543,7 @@
         <v>8.809558989000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -33545,7 +33557,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -33559,7 +33571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -33574,7 +33586,7 @@
         <v>0.10044543894000001</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -33589,7 +33601,7 @@
         <v>0.10546771088700001</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>140</v>
       </c>
@@ -33601,7 +33613,7 @@
         <v>7.4794070000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -33619,7 +33631,7 @@
         <v>8.2273477000000012E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -33634,7 +33646,7 @@
         <v>8.8032620390000024E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>24</v>
       </c>
@@ -33651,7 +33663,7 @@
         <v>0.16249234000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -33668,7 +33680,7 @@
         <v>0.15712415000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -33683,7 +33695,7 @@
         <v>0.10201911148000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -33698,7 +33710,7 @@
         <v>0.10712006705400001</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>140</v>
       </c>
@@ -33710,7 +33722,7 @@
         <v>7.4721309999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -33728,7 +33740,7 @@
         <v>8.2193441000000006E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -33743,7 +33755,7 @@
         <v>8.794698187000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -33760,7 +33772,7 @@
         <v>0.13163675000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -33777,7 +33789,7 @@
         <v>0.13022756000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -33792,7 +33804,7 @@
         <v>0.10356373566</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -33807,7 +33819,7 @@
         <v>0.108741922443</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>140</v>
       </c>
@@ -33819,7 +33831,7 @@
         <v>7.4661390000000008E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -33837,7 +33849,7 @@
         <v>8.2127529000000019E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>24</v>
       </c>
@@ -33852,7 +33864,7 @@
         <v>8.7876456030000022E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -33869,7 +33881,7 @@
         <v>0.10802506000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -33886,7 +33898,7 @@
         <v>0.10532010000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -33901,7 +33913,7 @@
         <v>0.11160309915810003</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -33916,17 +33928,17 @@
         <v>0.11718325411600504</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>140</v>
       </c>
@@ -33934,7 +33946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>25</v>
       </c>
@@ -33946,7 +33958,7 @@
         <v>0.97333333333333338</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>26</v>
       </c>
@@ -33958,7 +33970,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>161</v>
       </c>
@@ -33970,7 +33982,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
@@ -33982,7 +33994,7 @@
         <v>0.90666666666666662</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>162</v>
       </c>
@@ -33999,7 +34011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>153</v>
       </c>
@@ -34023,7 +34035,7 @@
         <v>14.776666666666667</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>167</v>
       </c>
@@ -34051,17 +34063,17 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -34075,7 +34087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -34093,7 +34105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>80</v>
       </c>
@@ -34104,7 +34116,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>81</v>
       </c>
@@ -34125,7 +34137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="64">
+    <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -34137,7 +34149,7 @@
         <v>1120000</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -34148,11 +34160,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -34167,7 +34179,7 @@
         <v>57375000</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>83</v>
       </c>
@@ -34182,7 +34194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -34194,12 +34206,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -34215,7 +34227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -34228,7 +34240,7 @@
         <v>531250000</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>89</v>
       </c>
@@ -34236,7 +34248,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>14</v>
       </c>
@@ -34256,39 +34268,39 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I2" s="38">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I3" s="38">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2009</v>
       </c>
@@ -34300,7 +34312,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2010</v>
       </c>
@@ -34312,7 +34324,7 @@
         <v>8.356545961002786E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2011</v>
       </c>
@@ -34324,7 +34336,7 @@
         <v>2.247191011235955E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2012</v>
       </c>
@@ -34336,7 +34348,7 @@
         <v>2.0114942528735632E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2013</v>
       </c>
@@ -34348,7 +34360,7 @@
         <v>1.1730205278592375E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2014</v>
       </c>
@@ -34364,7 +34376,7 @@
         <v>8.0779944289693595E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2015</v>
       </c>
@@ -34380,7 +34392,7 @@
         <v>9.8314606741573038E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2016</v>
       </c>
@@ -34396,51 +34408,51 @@
         <v>0.14942528735632185</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
-        <v>175</v>
       </c>
       <c r="C16">
         <f>1.02^5</f>
         <v>1.1040808032</v>
       </c>
       <c r="D16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>177</v>
       </c>
       <c r="C17">
         <f>1.02^10</f>
         <v>1.2189944199947571</v>
       </c>
       <c r="D17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>1.25/10</f>
         <v>0.125</v>
@@ -34448,5 +34460,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>